--- a/biology/Botanique/Epifagus/Epifagus.xlsx
+++ b/biology/Botanique/Epifagus/Epifagus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Epifagus est un genre monotypique de l'Est de l'Amérique du Nord[1]. L'unique espèce est Epifagus virginiana (épifage de Virginie), une plante reconnue pour son parasitisme de Fagus grandifolia (hêtre à grandes feuilles)[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Epifagus est un genre monotypique de l'Est de l'Amérique du Nord. L'unique espèce est Epifagus virginiana (épifage de Virginie), une plante reconnue pour son parasitisme de Fagus grandifolia (hêtre à grandes feuilles).
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">E. virginiana est une plante herbacée avec tige dressée (longue de 15 à 60 cm) qui se ramifie; d'une couleur pâle rosée ou brunâtre; elle ne produit pas de feuilles, mais possède des petites écailles. Les fleurs (longues de 8 à 10 mm) sont de deux types, situés dans le haut et le bas des tiges, toutes deux sessiles : dans le bas, les fleurs sont cléistogames et fertiles; dans le haut, les fleurs sont ouvertes et stériles. Le bas des tiges est enflé de façon à former un bulbe qui se ramifie dans de multiples directions, se sont les organes qui se fixent aux racines du hêtre à grandes feuilles pour en extraire de la sève. Le cycle vital annuel des épifages est relativement court, apparaissant à la fin de l'été et au début de l'automne.  
 </t>
@@ -542,7 +556,9 @@
           <t>Habitat et distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La présence d'épifage de Virginie est liée à l'aire de répartition du hêtre à grandes feuilles ; généralement dans des sols drainés ou moyennement humides d'érablières ainsi que dans les provinces maritimes.
 </t>
